--- a/Professions/30 Бизнес-услуги_.xlsx
+++ b/Professions/30 Бизнес-услуги_.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="562">
   <si>
     <t>ID</t>
   </si>
@@ -164,88 +164,97 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с одного языка на другой</t>
+    <t>Переводчик-это специалист по переводу письменного текста или устной речи с одного языка на другой</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с английского языка на русский</t>
+    <t>Переводчик с английского языка-это специалист по переводу письменного текста или устной речи с английского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с итальянского языка на русский</t>
+    <t>Переводчик с итальянского языка-это специалист по переводу письменного текста или устной речи с итальянского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с китайского языка на русский</t>
+    <t>Переводчик с китайского языка-это специалист по переводу письменного текста или устной речи с китайского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с корейского языка на русский</t>
+    <t>Переводчик с корейского языка-это специалист по переводу письменного текста или устной речи с корейского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с немецкого языка на русский</t>
+    <t>Переводчик с немецкого языка-это специалист по переводу письменного текста или устной речи с немецкого языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с французского языка на русский</t>
+    <t>Переводчик с французского языка-это специалист по переводу письменного текста или устной речи с французского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист по переводу письменного текста или устной речи с японского языка на русский</t>
+    <t>Переводчик с японского языка-это специалист по переводу письменного текста или устной речи с японского языка на русский</t>
   </si>
   <si>
-    <t>Это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам</t>
+    <t>Аналитик – это человек, который может проанализировать ситуацию в организации, описать её доступным для потребителя языком, и предоставить, если возможно, видение того, как это должно быть</t>
   </si>
   <si>
-    <t>Это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в HR сфере</t>
+    <t>HR-аналитик-это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в HR сфере</t>
   </si>
   <si>
-    <t>Это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в сфере ведения бизнеса</t>
+    <t>Аналитик бизнес-процессов-это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в сфере ведения бизнеса</t>
   </si>
   <si>
-    <t>Это специалист, который занимается обработкой данных, а также снижением стоимости и повышением эффеквтиности логистических цепей</t>
+    <t>Аналитик-консультант-это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам</t>
   </si>
   <si>
-    <t>Это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в сфере маркетинга</t>
+    <t>Аналитик-логист-это специалист, который занимается обработкой данных, а также снижением стоимости и повышением эффеквтиности логистических цепей</t>
   </si>
   <si>
-    <t>Это специалист, который оказывает психологическую поддержку клиенту и помогает ему повысить свою эффективность и достигнуть целей. Фактически, это своего рода психолог, но который специализируется на решении не внутренних, а внешних проблем</t>
+    <t>Аналитик отдела маркетинга-это специалист, который занимается обработкой данных и составлением на их основе прогнозов, стратегий, планов и рекомендаций клиентам в сфере маркетинга</t>
   </si>
   <si>
-    <t>Это специалист, который проводит обучение по своей профессиональной теме</t>
+    <t>Коуч-это специалист, который оказывает психологическую поддержку клиенту и помогает ему повысить свою эффективность и достигнуть целей. Фактически, это своего рода психолог, но который специализируется на решении не внутренних, а внешних проблем</t>
   </si>
   <si>
-    <t>Это специалист, который помогает человеку развивать когнитивные навыки (память, концентрация внимания, скорость чтения и тд)</t>
+    <t>Бизнес тренер-это специалист, который проводит обучение по своей профессиональной теме</t>
   </si>
   <si>
-    <t>Это специалист, который оказывает содействие по внедрению автоматизированных информационных систем управления бизнес-процессами предприятия (enterprise resource planning – ERP-систем)</t>
+    <t>Тренер по майнд-фитнесу-это специалист, который помогает человеку развивать когнитивные навыки (память, концентрация внимания, скорость чтения и тд)</t>
   </si>
   <si>
-    <t>Это специалист, который оказывает содействие по внедрению и наладке различных IT систем</t>
+    <t>Консультант-это эксперт, оказывающий консультационные услуги компаниям или частным лицам для достижения поставленных бизнес целей. Консультанты анализируют бизнес-показатели, выявляют проблемы и предлагают способы их решения. Консультант может быть сотрудником консалтинговой фирмы или частным предпринимателем.</t>
   </si>
   <si>
-    <t>Это специалист, которые оказывает содействие по внедрению программного обеспечения SAP (англ. System Analysis and Program Development, рус. Системный анализ и разработка программ)</t>
+    <t>Консультант по ERP-это специалист, который оказывает содействие по внедрению автоматизированных информационных систем управления бизнес-процессами предприятия (enterprise resource planning – ERP-систем)</t>
   </si>
   <si>
-    <t>Констультирует людей по налогам, ведению бухгалтерии и другим вопросам связанным с бухгалтерским учетом и налогами</t>
+    <t>Консультант по IT-это специалист, который оказывает содействие по внедрению и наладке различных IT систем</t>
   </si>
   <si>
-    <t>Это специалист, который оказывает содействие в создании производственного плана</t>
+    <t>Консультант по SAP-это специалист, которые оказывает содействие по внедрению программного обеспечения SAP (англ. System Analysis and Program Development, рус. Системный анализ и разработка программ)</t>
   </si>
   <si>
-    <t>Это сотрудник, который консультирует клиентов по поводу характеристик товара</t>
+    <t>Консультант по бухгалтерскому учету-это специалист, который констультирует людей по налогам, ведению бухгалтерии и другим вопросам связанным с бухгалтерским учетом и налогами</t>
   </si>
   <si>
-    <t>Это специалист, который выявляет проблемные места в управлеченской системе компаний и помогает их решить</t>
+    <t>Консультант по налогам-это сотрудник налоговой организации, консультирующий клиентов (юридические и физические лица) по вопросам налогообложения.</t>
   </si>
   <si>
-    <t>Это специалист, который помогает составить финансовый план</t>
+    <t>Консультант по планированию-это специалист, который оказывает содействие в создании производственного плана</t>
   </si>
   <si>
-    <t>Это специалист, который помогает строить персональный карьерный маршрут</t>
+    <t>Консультант по продажам-это сотрудник, который консультирует клиентов по поводу характеристик товара</t>
   </si>
   <si>
-    <t>Это человек, который строит персональный образовательный маршрут (учебный план) для конкретного человека</t>
+    <t>Консультант по управлению-это специалист, который выявляет проблемные места в управлеченской системе компаний и помогает их решить</t>
   </si>
   <si>
-    <t>Это специалист, который помогает определиться с профессией с учетом индивидуальных особенностей и интересов человека</t>
+    <t>Консультант по финансам-это специалист, который помогает составить финансовый план</t>
   </si>
   <si>
-    <t>Это человек, который создает персональный план инвестиций в пенсионные фонды с учетом различных индивидуальных факторов</t>
+    <t>Карьерный консультант-это специалист, который помогает строить персональный карьерный маршрут</t>
+  </si>
+  <si>
+    <t>Проектировщик индивидуальных образовательных траекторий (разработчик образовательных траекторий)-это человек, который строит персональный образовательный маршрут (учебный план) для конкретного человека</t>
+  </si>
+  <si>
+    <t>Профориентолог-это специалист, который помогает определиться с профессией с учетом индивидуальных особенностей и интересов человека</t>
+  </si>
+  <si>
+    <t>Разработчик персональных пенсионных планов-это человек, который создает персональный план инвестиций в пенсионные фонды с учетом различных индивидуальных факторов</t>
   </si>
   <si>
     <t>Функции 1</t>
@@ -440,6 +449,30 @@
     <t>осуществление технической поддержки установленной системы на финальных стадиях проекта и после его окончания (консультация, предоставление необходимых корректировок и дополнений)</t>
   </si>
   <si>
+    <t>Осуществляет сопровождение пользователей в период промышленной эксплуатации SAP систем</t>
+  </si>
+  <si>
+    <t>Проводит обучение и консультирование ключевых и конечных пользователей</t>
+  </si>
+  <si>
+    <t>Разрабатывает и актуализирует инструкции пользователей по работе в системе SAP</t>
+  </si>
+  <si>
+    <t>Описывает бизнес-процессы</t>
+  </si>
+  <si>
+    <t>Анализирует работу пользователей/системы в типовых инцидентах</t>
+  </si>
+  <si>
+    <t>Выполняет разработку и корректировку спецификаций на разработку/настройку системы SAP</t>
+  </si>
+  <si>
+    <t>Проводит внутреннее тестирование, включая подготовку тестовых сценариев и тестовых примеров</t>
+  </si>
+  <si>
+    <t>Отвечает за подготовку системы и ее ввод в опытно-промышленную эксплуатацию</t>
+  </si>
+  <si>
     <t>разработка новых программ</t>
   </si>
   <si>
@@ -462,30 +495,6 @@
   </si>
   <si>
     <t>выполнение мелких задач таких как: ремонт ПК, «подгон» операционной системы под нужды предприятия, настройка определенного софта (например, 1С)</t>
-  </si>
-  <si>
-    <t>Осуществляет сопровождение пользователей в период промышленной эксплуатации SAP систем</t>
-  </si>
-  <si>
-    <t>Проводит обучение и консультирование ключевых и конечных пользователей</t>
-  </si>
-  <si>
-    <t>Разрабатывает и актуализирует инструкции пользователей по работе в системе SAP</t>
-  </si>
-  <si>
-    <t>Описывает бизнес-процессы</t>
-  </si>
-  <si>
-    <t>Анализирует работу пользователей/системы в типовых инцидентах</t>
-  </si>
-  <si>
-    <t>Выполняет разработку и корректировку спецификаций на разработку/настройку системы SAP</t>
-  </si>
-  <si>
-    <t>Проводит внутреннее тестирование, включая подготовку тестовых сценариев и тестовых примеров</t>
-  </si>
-  <si>
-    <t>Отвечает за подготовку системы и ее ввод в опытно-промышленную эксплуатацию</t>
   </si>
   <si>
     <t>консультирование клиентов по программным продуктам 1С</t>
@@ -743,6 +752,9 @@
     <t>https://agr-city.ru/img/images/1243.jpg</t>
   </si>
   <si>
+    <t>https://assets.website-files.com/5ebaad16ec6eeb2dd4200719/5f22963f53fb855ba0cf152f_Verträge.jpg</t>
+  </si>
+  <si>
     <t>https://1e9vo533rida47jjzi4aqo8t-wpengine.netdna-ssl.com/wp-content/uploads/2019/07/Fourlane-Inc_The-Perks-of-Installing-Enterprise-Resource-Planning-Software_IMAGE1.jpeg</t>
   </si>
   <si>
@@ -995,6 +1007,15 @@
     <t>Коммуникативные навыки</t>
   </si>
   <si>
+    <t>Работа с информацией</t>
+  </si>
+  <si>
+    <t>Тайм-менеджмент</t>
+  </si>
+  <si>
+    <t>управление ресурсами</t>
+  </si>
+  <si>
     <t>Понимание области деятельности организации и отраслевой бизнес-специфики</t>
   </si>
   <si>
@@ -1116,9 +1137,6 @@
   </si>
   <si>
     <t>Знание основ планирования</t>
-  </si>
-  <si>
-    <t>Тайм-менеджмент</t>
   </si>
   <si>
     <t>Эмоциональный интеллект</t>
@@ -1752,12 +1770,12 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FF222222"/>
+      <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1793,7 +1811,9 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1805,9 +1825,7 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF1155CC"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -1908,8 +1926,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1926,14 +1950,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFCFE2F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -1966,7 +1984,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2019,31 +2037,33 @@
     <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
@@ -2057,16 +2077,13 @@
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -2074,23 +2091,32 @@
     <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2102,13 +2128,16 @@
     <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2117,37 +2146,28 @@
     <xf borderId="0" fillId="6" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2187,12 +2207,15 @@
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2210,28 +2233,31 @@
     <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2890,7 +2916,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="5">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>6</v>
@@ -2902,7 +2928,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -2922,7 +2948,7 @@
         <v>26</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -2942,7 +2968,7 @@
         <v>26</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -2962,7 +2988,7 @@
         <v>26</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -2982,7 +3008,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -3002,7 +3028,7 @@
         <v>26</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -3022,7 +3048,7 @@
         <v>26</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -3042,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -3062,7 +3088,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -3070,7 +3096,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="5">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>6</v>
@@ -3079,10 +3105,10 @@
         <v>16</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -3102,7 +3128,7 @@
         <v>36</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -3110,7 +3136,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="5">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>6</v>
@@ -3119,10 +3145,10 @@
         <v>16</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -3130,7 +3156,7 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="5">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>6</v>
@@ -3139,17 +3165,31 @@
         <v>16</v>
       </c>
       <c r="E31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -3737,12 +3777,12 @@
       <c r="A130" s="4"/>
       <c r="B130" s="7"/>
       <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
       <c r="B131" s="7"/>
       <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -4143,7 +4183,6 @@
     <row r="198">
       <c r="A198" s="4"/>
       <c r="B198" s="7"/>
-      <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="7"/>
     </row>
@@ -4157,6 +4196,7 @@
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="7"/>
+      <c r="D200" s="7"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7"/>
     </row>
@@ -4217,7 +4257,6 @@
     <row r="210">
       <c r="A210" s="4"/>
       <c r="B210" s="7"/>
-      <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="7"/>
     </row>
@@ -4240,13 +4279,13 @@
       <c r="B213" s="7"/>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
+      <c r="F213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
       <c r="B214" s="7"/>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
-      <c r="F214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -4265,13 +4304,13 @@
     <row r="217">
       <c r="A217" s="4"/>
       <c r="B217" s="7"/>
+      <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="7"/>
     </row>
     <row r="218">
       <c r="A218" s="4"/>
       <c r="B218" s="7"/>
-      <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="7"/>
     </row>
@@ -4327,6 +4366,7 @@
     <row r="226">
       <c r="A226" s="4"/>
       <c r="B226" s="7"/>
+      <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="7"/>
     </row>
@@ -4357,13 +4397,13 @@
     <row r="231">
       <c r="A231" s="4"/>
       <c r="B231" s="7"/>
-      <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="7"/>
     </row>
     <row r="232">
       <c r="A232" s="4"/>
       <c r="B232" s="7"/>
+      <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="7"/>
     </row>
@@ -4890,10 +4930,10 @@
       <c r="F319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
-      <c r="E320" s="9"/>
-      <c r="F320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
+      <c r="E320" s="7"/>
+      <c r="F320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -8974,6 +9014,12 @@
       <c r="B1000" s="9"/>
       <c r="E1000" s="9"/>
       <c r="F1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
+      <c r="E1001" s="9"/>
+      <c r="F1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9010,32 +9056,32 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>445</v>
+      <c r="C1" s="65" t="s">
+        <v>451</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="63" t="s">
-        <v>448</v>
+      <c r="G1" s="65" t="s">
+        <v>454</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="L1" s="12"/>
       <c r="M1" s="12"/>
@@ -9192,7 +9238,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -9200,7 +9246,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -9208,7 +9254,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -9216,7 +9262,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -9224,7 +9270,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -9232,7 +9278,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -9240,7 +9286,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -9248,7 +9294,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -9256,7 +9302,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -9264,7 +9310,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -9272,7 +9318,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -9280,7 +9326,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -9288,20 +9334,24 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -9685,10 +9735,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -10016,10 +10066,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -10442,8 +10492,8 @@
       <c r="B319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -13164,6 +13214,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -13199,20 +13253,20 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="64" t="s">
-        <v>445</v>
-      </c>
-      <c r="D1" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="E1" s="65" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="G1" s="64" t="s">
-        <v>456</v>
+      <c r="C1" s="66" t="s">
+        <v>451</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>461</v>
+      </c>
+      <c r="G1" s="66" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="2">
@@ -13222,11 +13276,11 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -13235,11 +13289,11 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -13248,11 +13302,11 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -13261,11 +13315,11 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="69"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -13274,11 +13328,11 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -13287,11 +13341,11 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="66"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="68"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -13300,11 +13354,11 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="68"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="70"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -13313,11 +13367,11 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -13326,11 +13380,11 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -13347,11 +13401,11 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
@@ -13360,11 +13414,11 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -13373,11 +13427,11 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -13386,11 +13440,11 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -13399,11 +13453,11 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="74"/>
-      <c r="G16" s="66"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="68"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -13412,11 +13466,11 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -13425,65 +13479,70 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
     </row>
     <row r="19">
-      <c r="A19" s="4">
+      <c r="A19" s="77">
         <v>18.0</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="B19" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+        <v>27</v>
+      </c>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="71"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="76"/>
+        <v>28</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C22" s="73"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="79"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -13491,7 +13550,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -13499,7 +13558,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -13507,24 +13566,24 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="52"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="F27" s="54"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -13532,38 +13591,42 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="52"/>
+        <v>36</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="52"/>
+        <v>37</v>
+      </c>
+      <c r="F30" s="54"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="54"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -13844,15 +13907,15 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="7"/>
+      <c r="C105" s="68"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="68"/>
+      <c r="F105" s="68"/>
+      <c r="G105" s="68"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -13889,14 +13952,14 @@
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="7"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
       <c r="B115" s="7"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="68"/>
+      <c r="F115" s="68"/>
+      <c r="G115" s="68"/>
     </row>
     <row r="116">
       <c r="A116" s="4"/>
@@ -13956,10 +14019,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -14012,13 +14075,13 @@
     <row r="144">
       <c r="A144" s="4"/>
       <c r="B144" s="7"/>
-      <c r="E144" s="75"/>
-      <c r="F144" s="67"/>
-      <c r="G144" s="76"/>
     </row>
     <row r="145">
       <c r="A145" s="4"/>
       <c r="B145" s="7"/>
+      <c r="E145" s="78"/>
+      <c r="F145" s="69"/>
+      <c r="G145" s="79"/>
     </row>
     <row r="146">
       <c r="A146" s="4"/>
@@ -14239,40 +14302,40 @@
     <row r="200">
       <c r="A200" s="4"/>
       <c r="B200" s="7"/>
-      <c r="C200" s="66"/>
-      <c r="D200" s="66"/>
-      <c r="E200" s="66"/>
-      <c r="F200" s="66"/>
-      <c r="G200" s="66"/>
     </row>
     <row r="201">
       <c r="A201" s="4"/>
       <c r="B201" s="7"/>
+      <c r="C201" s="68"/>
+      <c r="D201" s="68"/>
+      <c r="E201" s="68"/>
+      <c r="F201" s="68"/>
+      <c r="G201" s="68"/>
     </row>
     <row r="202">
       <c r="A202" s="4"/>
       <c r="B202" s="7"/>
-      <c r="C202" s="66"/>
-      <c r="D202" s="66"/>
-      <c r="E202" s="66"/>
-      <c r="F202" s="66"/>
-      <c r="G202" s="66"/>
     </row>
     <row r="203">
       <c r="A203" s="4"/>
       <c r="B203" s="7"/>
+      <c r="C203" s="68"/>
+      <c r="D203" s="68"/>
+      <c r="E203" s="68"/>
+      <c r="F203" s="68"/>
+      <c r="G203" s="68"/>
     </row>
     <row r="204">
       <c r="A204" s="4"/>
       <c r="B204" s="7"/>
-      <c r="D204" s="66"/>
-      <c r="E204" s="66"/>
-      <c r="F204" s="66"/>
-      <c r="G204" s="66"/>
     </row>
     <row r="205">
       <c r="A205" s="4"/>
       <c r="B205" s="7"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="68"/>
     </row>
     <row r="206">
       <c r="A206" s="4"/>
@@ -14281,24 +14344,24 @@
     <row r="207">
       <c r="A207" s="4"/>
       <c r="B207" s="7"/>
-      <c r="C207" s="74"/>
-      <c r="D207" s="66"/>
-      <c r="E207" s="66"/>
-      <c r="F207" s="66"/>
-      <c r="G207" s="66"/>
     </row>
     <row r="208">
       <c r="A208" s="4"/>
       <c r="B208" s="7"/>
-      <c r="C208" s="66"/>
-      <c r="D208" s="66"/>
-      <c r="E208" s="66"/>
-      <c r="F208" s="74"/>
-      <c r="G208" s="66"/>
+      <c r="C208" s="76"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="68"/>
     </row>
     <row r="209">
       <c r="A209" s="4"/>
       <c r="B209" s="7"/>
+      <c r="C209" s="68"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="76"/>
+      <c r="G209" s="68"/>
     </row>
     <row r="210">
       <c r="A210" s="4"/>
@@ -14314,15 +14377,15 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="52"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="7"/>
+      <c r="C215" s="54"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -14435,38 +14498,38 @@
     <row r="243">
       <c r="A243" s="4"/>
       <c r="B243" s="7"/>
-      <c r="C243" s="77"/>
     </row>
     <row r="244">
       <c r="A244" s="4"/>
-      <c r="B244" s="66"/>
-      <c r="C244" s="66"/>
-      <c r="D244" s="66"/>
-      <c r="E244" s="66"/>
-      <c r="F244" s="70"/>
-      <c r="G244" s="66"/>
+      <c r="B244" s="7"/>
+      <c r="C244" s="80"/>
     </row>
     <row r="245">
       <c r="A245" s="4"/>
-      <c r="B245" s="7"/>
-      <c r="C245" s="66"/>
-      <c r="D245" s="66"/>
-      <c r="E245" s="66"/>
-      <c r="F245" s="66"/>
-      <c r="G245" s="66"/>
+      <c r="B245" s="68"/>
+      <c r="C245" s="68"/>
+      <c r="D245" s="68"/>
+      <c r="E245" s="68"/>
+      <c r="F245" s="72"/>
+      <c r="G245" s="68"/>
     </row>
     <row r="246">
       <c r="A246" s="4"/>
       <c r="B246" s="7"/>
-      <c r="C246" s="66"/>
-      <c r="D246" s="66"/>
-      <c r="E246" s="66"/>
-      <c r="F246" s="66"/>
-      <c r="G246" s="66"/>
+      <c r="C246" s="68"/>
+      <c r="D246" s="68"/>
+      <c r="E246" s="68"/>
+      <c r="F246" s="68"/>
+      <c r="G246" s="68"/>
     </row>
     <row r="247">
       <c r="A247" s="4"/>
       <c r="B247" s="7"/>
+      <c r="C247" s="68"/>
+      <c r="D247" s="68"/>
+      <c r="E247" s="68"/>
+      <c r="F247" s="68"/>
+      <c r="G247" s="68"/>
     </row>
     <row r="248">
       <c r="A248" s="4"/>
@@ -14643,16 +14706,16 @@
     <row r="291">
       <c r="A291" s="4"/>
       <c r="B291" s="7"/>
-      <c r="C291" s="67"/>
-      <c r="D291" s="75"/>
-      <c r="E291" s="78"/>
-      <c r="F291" s="75"/>
-      <c r="G291" s="76"/>
-      <c r="H291" s="75"/>
     </row>
     <row r="292">
       <c r="A292" s="4"/>
       <c r="B292" s="7"/>
+      <c r="C292" s="69"/>
+      <c r="D292" s="78"/>
+      <c r="E292" s="81"/>
+      <c r="F292" s="78"/>
+      <c r="G292" s="79"/>
+      <c r="H292" s="78"/>
     </row>
     <row r="293">
       <c r="A293" s="4"/>
@@ -14763,8 +14826,8 @@
       <c r="B319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -17485,6 +17548,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -17519,17 +17586,17 @@
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="63" t="s">
-        <v>457</v>
+      <c r="C1" s="65" t="s">
+        <v>463</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>454</v>
-      </c>
-      <c r="F1" s="63" t="s">
-        <v>456</v>
+        <v>460</v>
+      </c>
+      <c r="F1" s="65" t="s">
+        <v>462</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -17558,17 +17625,17 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="79" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F2" s="82" t="s">
-        <v>462</v>
+      <c r="C2" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="D2" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="3">
@@ -17578,17 +17645,17 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="79" t="s">
-        <v>463</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>462</v>
+      <c r="C3" s="82" t="s">
+        <v>469</v>
+      </c>
+      <c r="D3" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E3" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F3" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4">
@@ -17598,17 +17665,17 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="79" t="s">
-        <v>464</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="82" t="s">
-        <v>462</v>
+      <c r="C4" s="82" t="s">
+        <v>470</v>
+      </c>
+      <c r="D4" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F4" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="5">
@@ -17618,17 +17685,17 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="79" t="s">
-        <v>465</v>
-      </c>
-      <c r="D5" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E5" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F5" s="82" t="s">
-        <v>462</v>
+      <c r="C5" s="82" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F5" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="6">
@@ -17638,17 +17705,17 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="82" t="s">
+        <v>472</v>
+      </c>
+      <c r="D6" s="83" t="s">
         <v>466</v>
       </c>
-      <c r="D6" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E6" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F6" s="82" t="s">
-        <v>462</v>
+      <c r="E6" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="7">
@@ -17658,17 +17725,17 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="79" t="s">
+      <c r="C7" s="82" t="s">
+        <v>473</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="D7" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E7" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F7" s="82" t="s">
-        <v>462</v>
+      <c r="F7" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="8">
@@ -17678,17 +17745,17 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="82" t="s">
+        <v>474</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E8" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F8" s="85" t="s">
         <v>468</v>
-      </c>
-      <c r="D8" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F8" s="82" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="9">
@@ -17698,37 +17765,37 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="79" t="s">
-        <v>469</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>460</v>
-      </c>
-      <c r="E9" s="81" t="s">
-        <v>461</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>462</v>
+      <c r="C9" s="82" t="s">
+        <v>475</v>
+      </c>
+      <c r="D9" s="83" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="84" t="s">
+        <v>467</v>
+      </c>
+      <c r="F9" s="85" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="83" t="s">
-        <v>470</v>
-      </c>
-      <c r="D10" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="F10" s="86" t="s">
-        <v>473</v>
+      <c r="C10" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="11">
@@ -17738,17 +17805,17 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="79" t="s">
-        <v>474</v>
-      </c>
-      <c r="D11" s="80" t="s">
-        <v>475</v>
-      </c>
-      <c r="E11" s="81" t="s">
-        <v>476</v>
-      </c>
-      <c r="F11" s="82" t="s">
-        <v>477</v>
+      <c r="C11" s="82" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="83" t="s">
+        <v>481</v>
+      </c>
+      <c r="E11" s="84" t="s">
+        <v>482</v>
+      </c>
+      <c r="F11" s="85" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="12">
@@ -17758,37 +17825,37 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="79" t="s">
-        <v>478</v>
-      </c>
-      <c r="D12" s="80" t="s">
-        <v>479</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>480</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>481</v>
+      <c r="C12" s="82" t="s">
+        <v>484</v>
+      </c>
+      <c r="D12" s="83" t="s">
+        <v>485</v>
+      </c>
+      <c r="E12" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="83" t="s">
-        <v>482</v>
-      </c>
-      <c r="D13" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="85" t="s">
-        <v>472</v>
-      </c>
-      <c r="F13" s="86" t="s">
-        <v>473</v>
+      <c r="C13" s="86" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>477</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>478</v>
+      </c>
+      <c r="F13" s="89" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="14">
@@ -17798,17 +17865,17 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="79" t="s">
-        <v>483</v>
-      </c>
-      <c r="D14" s="80" t="s">
-        <v>484</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>485</v>
-      </c>
-      <c r="F14" s="82" t="s">
-        <v>486</v>
+      <c r="C14" s="82" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="83" t="s">
+        <v>490</v>
+      </c>
+      <c r="E14" s="84" t="s">
+        <v>491</v>
+      </c>
+      <c r="F14" s="85" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="15">
@@ -17818,17 +17885,17 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="79" t="s">
-        <v>487</v>
-      </c>
-      <c r="D15" s="80" t="s">
-        <v>488</v>
-      </c>
-      <c r="E15" s="81" t="s">
-        <v>489</v>
-      </c>
-      <c r="F15" s="82" t="s">
-        <v>490</v>
+      <c r="C15" s="82" t="s">
+        <v>493</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>494</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="F15" s="85" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="16">
@@ -17838,10 +17905,10 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="79" t="s">
-        <v>491</v>
-      </c>
-      <c r="D16" s="87"/>
+      <c r="C16" s="82" t="s">
+        <v>497</v>
+      </c>
+      <c r="D16" s="90"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -17850,8 +17917,8 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="79" t="s">
-        <v>492</v>
+      <c r="C17" s="82" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="18">
@@ -17861,33 +17928,31 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="79" t="s">
-        <v>493</v>
-      </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="67"/>
+      <c r="C18" s="82" t="s">
+        <v>499</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="69"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="79" t="s">
-        <v>494</v>
-      </c>
+      <c r="B19" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="82"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="79" t="s">
-        <v>495</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="21">
@@ -17895,52 +17960,52 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="79" t="s">
-        <v>496</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="79" t="s">
-        <v>497</v>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="88" t="s">
-        <v>478</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>498</v>
-      </c>
-      <c r="E23" s="89" t="s">
-        <v>499</v>
-      </c>
-      <c r="F23" s="90" t="s">
-        <v>500</v>
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="79" t="s">
-        <v>501</v>
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="91" t="s">
+        <v>484</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="E24" s="93" t="s">
+        <v>505</v>
+      </c>
+      <c r="F24" s="94" t="s">
+        <v>506</v>
       </c>
     </row>
     <row r="25">
@@ -17948,10 +18013,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="79" t="s">
-        <v>502</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="82" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="26">
@@ -17959,10 +18024,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="79" t="s">
-        <v>503</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="82" t="s">
+        <v>508</v>
       </c>
     </row>
     <row r="27">
@@ -17970,10 +18035,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="79" t="s">
-        <v>504</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="82" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="28">
@@ -17981,10 +18046,10 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="79" t="s">
-        <v>505</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="82" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="29">
@@ -17992,10 +18057,10 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="79" t="s">
-        <v>506</v>
+        <v>36</v>
+      </c>
+      <c r="C29" s="82" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="30">
@@ -18003,10 +18068,10 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="79" t="s">
-        <v>507</v>
+        <v>37</v>
+      </c>
+      <c r="C30" s="82" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="31">
@@ -18014,23 +18079,30 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="82" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="79" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="C32" s="82" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -18414,10 +18486,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -18562,12 +18634,12 @@
     <row r="167">
       <c r="A167" s="4"/>
       <c r="B167" s="7"/>
-      <c r="D167" s="75"/>
-      <c r="E167" s="75"/>
     </row>
     <row r="168">
       <c r="A168" s="4"/>
       <c r="B168" s="7"/>
+      <c r="D168" s="78"/>
+      <c r="E168" s="78"/>
     </row>
     <row r="169">
       <c r="A169" s="4"/>
@@ -18747,10 +18819,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -19119,11 +19191,11 @@
     <row r="306">
       <c r="A306" s="4"/>
       <c r="B306" s="7"/>
-      <c r="F306" s="7"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
       <c r="B307" s="7"/>
+      <c r="F307" s="7"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -19174,8 +19246,8 @@
       <c r="B319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -21896,6 +21968,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -21913,7 +21989,7 @@
     <hyperlink r:id="rId12" ref="F13"/>
     <hyperlink r:id="rId13" ref="F14"/>
     <hyperlink r:id="rId14" ref="F15"/>
-    <hyperlink r:id="rId15" ref="F23"/>
+    <hyperlink r:id="rId15" ref="F24"/>
   </hyperlinks>
   <drawing r:id="rId16"/>
 </worksheet>
@@ -21934,79 +22010,79 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="75" t="s">
-        <v>509</v>
-      </c>
-      <c r="D1" s="75" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1" s="75" t="s">
-        <v>511</v>
-      </c>
-      <c r="F1" s="75" t="s">
-        <v>512</v>
-      </c>
-      <c r="G1" s="75" t="s">
-        <v>513</v>
-      </c>
-      <c r="H1" s="75" t="s">
-        <v>514</v>
-      </c>
-      <c r="I1" s="75" t="s">
+      <c r="C1" s="78" t="s">
         <v>515</v>
       </c>
-      <c r="J1" s="75" t="s">
+      <c r="D1" s="78" t="s">
         <v>516</v>
       </c>
-      <c r="K1" s="75" t="s">
+      <c r="E1" s="78" t="s">
         <v>517</v>
       </c>
-      <c r="L1" s="75" t="s">
+      <c r="F1" s="78" t="s">
         <v>518</v>
       </c>
-      <c r="M1" s="75" t="s">
+      <c r="G1" s="78" t="s">
         <v>519</v>
       </c>
-      <c r="N1" s="75" t="s">
+      <c r="H1" s="78" t="s">
         <v>520</v>
       </c>
-      <c r="O1" s="75" t="s">
+      <c r="I1" s="78" t="s">
         <v>521</v>
       </c>
-      <c r="P1" s="75" t="s">
+      <c r="J1" s="78" t="s">
         <v>522</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="K1" s="78" t="s">
         <v>523</v>
       </c>
-      <c r="R1" s="75" t="s">
+      <c r="L1" s="78" t="s">
         <v>524</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="M1" s="78" t="s">
         <v>525</v>
       </c>
-      <c r="T1" s="75" t="s">
+      <c r="N1" s="78" t="s">
         <v>526</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="O1" s="78" t="s">
         <v>527</v>
       </c>
-      <c r="V1" s="93" t="s">
+      <c r="P1" s="78" t="s">
         <v>528</v>
       </c>
-      <c r="W1" s="94" t="s">
+      <c r="Q1" s="78" t="s">
         <v>529</v>
       </c>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="75"/>
-      <c r="AA1" s="75"/>
+      <c r="R1" s="78" t="s">
+        <v>530</v>
+      </c>
+      <c r="S1" s="78" t="s">
+        <v>531</v>
+      </c>
+      <c r="T1" s="78" t="s">
+        <v>532</v>
+      </c>
+      <c r="U1" s="78" t="s">
+        <v>533</v>
+      </c>
+      <c r="V1" s="97" t="s">
+        <v>534</v>
+      </c>
+      <c r="W1" s="98" t="s">
+        <v>535</v>
+      </c>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="78"/>
+      <c r="AA1" s="78"/>
     </row>
     <row r="2">
       <c r="A2" s="4">
@@ -22148,8 +22224,8 @@
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
+      <c r="B19" s="74" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -22157,7 +22233,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -22165,7 +22241,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -22173,7 +22249,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -22181,7 +22257,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -22189,7 +22265,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -22197,7 +22273,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -22205,7 +22281,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -22213,7 +22289,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -22221,7 +22297,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -22229,7 +22305,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -22237,7 +22313,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -22245,12 +22321,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -22642,10 +22722,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -22973,10 +23053,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -23364,7 +23444,7 @@
     </row>
     <row r="311">
       <c r="A311" s="4"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -23439,8 +23519,8 @@
       <c r="B329" s="6"/>
     </row>
     <row r="330">
-      <c r="A330" s="8"/>
-      <c r="B330" s="9"/>
+      <c r="A330" s="4"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331">
       <c r="A331" s="8"/>
@@ -26121,6 +26201,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -26142,83 +26226,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="95" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>530</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>531</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>532</v>
-      </c>
-      <c r="F1" s="48" t="s">
-        <v>533</v>
-      </c>
-      <c r="G1" s="48" t="s">
-        <v>534</v>
-      </c>
-      <c r="H1" s="48" t="s">
-        <v>535</v>
-      </c>
-      <c r="I1" s="48" t="s">
+      <c r="C1" s="53" t="s">
         <v>536</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="D1" s="53" t="s">
         <v>537</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="E1" s="53" t="s">
         <v>538</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="F1" s="53" t="s">
         <v>539</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="G1" s="53" t="s">
         <v>540</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="H1" s="53" t="s">
         <v>541</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="I1" s="53" t="s">
         <v>542</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="J1" s="53" t="s">
         <v>543</v>
       </c>
-      <c r="Q1" s="48" t="s">
+      <c r="K1" s="53" t="s">
         <v>544</v>
       </c>
-      <c r="R1" s="48" t="s">
+      <c r="L1" s="53" t="s">
         <v>545</v>
       </c>
-      <c r="S1" s="48" t="s">
+      <c r="M1" s="53" t="s">
         <v>546</v>
       </c>
-      <c r="T1" s="48" t="s">
+      <c r="N1" s="53" t="s">
         <v>547</v>
       </c>
-      <c r="U1" s="48" t="s">
+      <c r="O1" s="53" t="s">
         <v>548</v>
       </c>
-      <c r="V1" s="48" t="s">
+      <c r="P1" s="53" t="s">
         <v>549</v>
       </c>
-      <c r="W1" s="48" t="s">
+      <c r="Q1" s="53" t="s">
         <v>550</v>
       </c>
-      <c r="X1" s="48" t="s">
+      <c r="R1" s="53" t="s">
         <v>551</v>
       </c>
-      <c r="Y1" s="48" t="s">
+      <c r="S1" s="53" t="s">
         <v>552</v>
       </c>
-      <c r="Z1" s="48" t="s">
+      <c r="T1" s="53" t="s">
         <v>553</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>554</v>
+      </c>
+      <c r="V1" s="53" t="s">
+        <v>555</v>
+      </c>
+      <c r="W1" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="X1" s="53" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y1" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="Z1" s="53" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="2">
@@ -26292,11 +26376,11 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>555</v>
+      <c r="C10" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="11">
@@ -26306,11 +26390,11 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>555</v>
+      <c r="C11" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="12">
@@ -26320,11 +26404,11 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>555</v>
+      <c r="C12" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="13">
@@ -26334,11 +26418,11 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>555</v>
+      <c r="C13" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="14">
@@ -26348,11 +26432,11 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>555</v>
+      <c r="C14" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="15">
@@ -26362,11 +26446,11 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>554</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>555</v>
+      <c r="C15" s="53" t="s">
+        <v>560</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="16">
@@ -26397,8 +26481,8 @@
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>27</v>
+      <c r="B19" s="74" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -26406,7 +26490,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -26414,7 +26498,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -26422,7 +26506,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -26430,7 +26514,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -26438,7 +26522,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -26446,7 +26530,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -26454,7 +26538,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -26462,7 +26546,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -26470,7 +26554,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -26478,7 +26562,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -26486,7 +26570,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -26494,12 +26578,16 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -26891,10 +26979,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -27222,10 +27310,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -27613,7 +27701,7 @@
     </row>
     <row r="311">
       <c r="A311" s="4"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
     </row>
     <row r="312">
       <c r="A312" s="4"/>
@@ -27688,8 +27776,8 @@
       <c r="B329" s="6"/>
     </row>
     <row r="330">
-      <c r="A330" s="8"/>
-      <c r="B330" s="9"/>
+      <c r="A330" s="4"/>
+      <c r="B330" s="6"/>
     </row>
     <row r="331">
       <c r="A331" s="8"/>
@@ -30370,6 +30458,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -35579,15 +35671,38 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4">
+      <c r="A10" s="18">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>54</v>
       </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -35596,7 +35711,7 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="22" t="s">
         <v>55</v>
       </c>
     </row>
@@ -35607,20 +35722,43 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="22" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="4">
+      <c r="A13" s="23">
         <v>12.0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>54</v>
-      </c>
+      <c r="C13" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -35629,8 +35767,8 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>57</v>
+      <c r="C14" s="22" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15">
@@ -35640,8 +35778,8 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>58</v>
+      <c r="C15" s="22" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -35652,7 +35790,7 @@
         <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17">
@@ -35663,7 +35801,7 @@
         <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18">
@@ -35674,7 +35812,7 @@
         <v>25</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19">
@@ -35682,10 +35820,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20">
@@ -35693,10 +35831,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -35704,54 +35842,100 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="18">
+        <v>22.0</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="B23" s="23" t="s">
+      <c r="C23" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="18">
+        <v>23.0</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="24" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4">
-        <v>23.0</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>66</v>
-      </c>
+      <c r="C24" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26">
@@ -35759,10 +35943,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27">
@@ -35770,10 +35954,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28">
@@ -35781,32 +35965,32 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>71</v>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>72</v>
+      <c r="B30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="31">
@@ -35814,16 +35998,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="C32" s="7" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4"/>
@@ -36312,11 +36502,11 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
       <c r="C130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
       <c r="C131" s="7"/>
     </row>
     <row r="132">
@@ -36726,11 +36916,11 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
       <c r="C213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
       <c r="C214" s="7"/>
     </row>
     <row r="215">
@@ -36843,12 +37033,12 @@
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
     </row>
-    <row r="237" ht="27.75" customHeight="1">
+    <row r="237">
       <c r="A237" s="4"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" ht="27.75" customHeight="1">
       <c r="A238" s="4"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -36923,12 +37113,12 @@
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
     </row>
-    <row r="253" ht="26.25" customHeight="1">
+    <row r="253">
       <c r="A253" s="4"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" ht="26.25" customHeight="1">
       <c r="A254" s="4"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -37215,7 +37405,7 @@
     </row>
     <row r="311">
       <c r="A311" s="4"/>
-      <c r="B311" s="6"/>
+      <c r="B311" s="7"/>
       <c r="C311" s="7"/>
     </row>
     <row r="312">
@@ -37261,7 +37451,7 @@
     <row r="320">
       <c r="A320" s="4"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="9"/>
+      <c r="C320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="4"/>
@@ -37309,8 +37499,8 @@
       <c r="C329" s="9"/>
     </row>
     <row r="330">
-      <c r="A330" s="8"/>
-      <c r="B330" s="9"/>
+      <c r="A330" s="4"/>
+      <c r="B330" s="6"/>
       <c r="C330" s="9"/>
     </row>
     <row r="331">
@@ -40662,6 +40852,11 @@
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
       <c r="C1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
+      <c r="C1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -40694,61 +40889,61 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
@@ -40761,30 +40956,30 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="G2" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3">
       <c r="A3" s="4">
@@ -40793,30 +40988,30 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="D3" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="E3" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="F3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
+      <c r="G3" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
     </row>
     <row r="4">
       <c r="A4" s="4">
@@ -40825,30 +41020,30 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="C4" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="D4" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="E4" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="F4" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="G4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
     </row>
     <row r="5">
       <c r="A5" s="4">
@@ -40857,30 +41052,30 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" s="20" t="s">
+      <c r="C5" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="D5" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="E5" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="F5" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="G5" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6">
       <c r="A6" s="4">
@@ -40889,30 +41084,30 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="C6" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="D6" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="E6" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="F6" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
+      <c r="G6" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
     </row>
     <row r="7">
       <c r="A7" s="4">
@@ -40921,30 +41116,30 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="C7" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="D7" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="E7" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="F7" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
+      <c r="G7" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
     </row>
     <row r="8">
       <c r="A8" s="4">
@@ -40953,30 +41148,30 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="C8" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="D8" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="E8" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="F8" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
+      <c r="G8" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -40985,30 +41180,30 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="C9" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="D9" s="22" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="E9" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="F9" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
+      <c r="G9" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10">
       <c r="A10" s="4">
@@ -41017,34 +41212,34 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="28" t="s">
+      <c r="C10" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="D10" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="E10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I10" s="28" t="s">
+      <c r="F10" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="28" t="s">
+      <c r="G10" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="28" t="s">
+      <c r="H10" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L10" s="27"/>
+      <c r="I10" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -41053,34 +41248,34 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="F11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L11" s="27"/>
+      <c r="I11" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="29"/>
     </row>
     <row r="12">
       <c r="A12" s="4">
@@ -41089,34 +41284,34 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="F12" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L12" s="27"/>
+      <c r="I12" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" s="29"/>
     </row>
     <row r="13">
       <c r="A13" s="4">
@@ -41125,34 +41320,34 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="D13" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H13" s="28" t="s">
+      <c r="E13" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I13" s="28" t="s">
+      <c r="F13" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="G13" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="H13" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L13" s="27"/>
+      <c r="I13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -41161,34 +41356,34 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="28" t="s">
+      <c r="D14" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L14" s="27"/>
+      <c r="I14" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L14" s="29"/>
     </row>
     <row r="15">
       <c r="A15" s="4">
@@ -41197,34 +41392,34 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="F15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="F15" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="H15" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="27"/>
+      <c r="I15" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="L15" s="29"/>
     </row>
     <row r="16">
       <c r="A16" s="4">
@@ -41233,28 +41428,28 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="F16" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
     </row>
     <row r="17">
       <c r="A17" s="4">
@@ -41263,32 +41458,32 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="G17" s="28" t="s">
+      <c r="D17" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="E17" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="I17" s="28" t="s">
+      <c r="F17" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="G17" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
+      <c r="H17" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
     </row>
     <row r="18">
       <c r="A18" s="4">
@@ -41297,457 +41492,514 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="F18" s="29" t="s">
+      <c r="C18" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="D18" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="E18" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
+      <c r="F18" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="30" t="s">
+      <c r="D19" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="E19" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="F19" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="G19" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="H19" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="L19" s="27"/>
+      <c r="I19" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="K19" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="R19" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="D20" s="31" t="s">
+      <c r="J20" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="K20" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="G20" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="I20" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
+      <c r="L20" s="29"/>
     </row>
     <row r="21">
       <c r="A21" s="4">
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="32" t="s">
-        <v>147</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="G21" s="32" t="s">
+      <c r="D21" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="E21" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="F21" s="34" t="s">
         <v>152</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="G21" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
+      <c r="H21" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="J21" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="27"/>
+        <v>144</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="36" t="s">
         <v>159</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="F23" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="G23" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="F23" s="35" t="s">
-        <v>162</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>163</v>
-      </c>
-      <c r="H23" s="36" t="s">
-        <v>164</v>
-      </c>
-      <c r="I23" s="35"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="32" t="s">
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="G24" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="H24" s="40" t="s">
         <v>167</v>
       </c>
-      <c r="F24" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="H24" s="32" t="s">
-        <v>170</v>
-      </c>
-      <c r="I24" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="33" t="s">
         <v>172</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="H25" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="I25" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="F25" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="G25" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="J25" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="K25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="38" t="s">
-        <v>181</v>
-      </c>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>176</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="I26" s="42" t="s">
+        <v>181</v>
+      </c>
+      <c r="J26" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="K26" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="E26" s="28" t="s">
+      <c r="L26" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="G26" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="22" t="s">
         <v>188</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="G27" s="22" t="s">
         <v>189</v>
       </c>
-      <c r="E27" s="41" t="s">
+      <c r="H27" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="F27" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="G27" s="41" t="s">
-        <v>192</v>
-      </c>
-      <c r="H27" s="41" t="s">
-        <v>193</v>
-      </c>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="44"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>192</v>
+      </c>
+      <c r="E28" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="G28" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="H28" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="F28" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="42" t="s">
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F29" s="30" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="42" t="s">
+      <c r="G29" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="42" t="s">
+      <c r="H29" s="30" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="H29" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="J29" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="K29" s="43" t="s">
-        <v>208</v>
-      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="44" t="s">
+      <c r="B30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D30" s="46" t="s">
+        <v>204</v>
+      </c>
+      <c r="E30" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="46" t="s">
+        <v>206</v>
+      </c>
+      <c r="G30" s="46" t="s">
+        <v>207</v>
+      </c>
+      <c r="H30" s="46" t="s">
+        <v>208</v>
+      </c>
+      <c r="I30" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="44" t="s">
+      <c r="J30" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="E30" s="44" t="s">
+      <c r="K30" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="F30" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="H30" s="44" t="s">
-        <v>214</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>215</v>
-      </c>
-      <c r="J30" s="27"/>
     </row>
     <row r="31">
       <c r="A31" s="4">
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="48" t="s">
+        <v>213</v>
+      </c>
+      <c r="E31" s="48" t="s">
+        <v>214</v>
+      </c>
+      <c r="F31" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="G31" s="48" t="s">
+        <v>216</v>
+      </c>
+      <c r="H31" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>216</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F31" s="28" t="s">
+      <c r="C32" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="G31" s="28" t="s">
+      <c r="D32" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="28" t="s">
+      <c r="E32" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="F32" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="H32" s="30" t="s">
+        <v>224</v>
+      </c>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34">
       <c r="A34" s="8"/>
@@ -42034,8 +42286,8 @@
       <c r="B104" s="9"/>
     </row>
     <row r="105">
-      <c r="A105" s="4"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="8"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -42059,7 +42311,7 @@
     </row>
     <row r="111">
       <c r="A111" s="4"/>
-      <c r="B111" s="6"/>
+      <c r="B111" s="7"/>
     </row>
     <row r="112">
       <c r="A112" s="4"/>
@@ -42134,8 +42386,8 @@
       <c r="B129" s="6"/>
     </row>
     <row r="130">
-      <c r="A130" s="8"/>
-      <c r="B130" s="9"/>
+      <c r="A130" s="4"/>
+      <c r="B130" s="6"/>
     </row>
     <row r="131">
       <c r="A131" s="8"/>
@@ -44276,6 +44528,10 @@
     <row r="665">
       <c r="A665" s="8"/>
       <c r="B665" s="9"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="8"/>
+      <c r="B666" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -44308,7 +44564,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -44341,8 +44597,8 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="45" t="s">
-        <v>223</v>
+      <c r="C2" s="49" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="3">
@@ -44352,8 +44608,8 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>224</v>
+      <c r="C3" s="49" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="4">
@@ -44363,8 +44619,8 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="45" t="s">
-        <v>225</v>
+      <c r="C4" s="49" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="5">
@@ -44374,8 +44630,8 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>226</v>
+      <c r="C5" s="50" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="6">
@@ -44385,8 +44641,8 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>227</v>
+      <c r="C6" s="49" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="7">
@@ -44396,8 +44652,8 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>228</v>
+      <c r="C7" s="49" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -44407,8 +44663,8 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>229</v>
+      <c r="C8" s="49" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="9">
@@ -44418,19 +44674,19 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>230</v>
+      <c r="C9" s="49" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="47" t="s">
-        <v>231</v>
+      <c r="C10" s="52" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="11">
@@ -44440,8 +44696,8 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>232</v>
+      <c r="C11" s="49" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="12">
@@ -44451,19 +44707,19 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>233</v>
+      <c r="C12" s="49" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="47" t="s">
-        <v>231</v>
+      <c r="C13" s="52" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="14">
@@ -44473,8 +44729,8 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>234</v>
+      <c r="C14" s="49" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="15">
@@ -44484,8 +44740,8 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>235</v>
+      <c r="C15" s="49" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="16">
@@ -44495,8 +44751,8 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="48" t="s">
-        <v>236</v>
+      <c r="C16" s="53" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17">
@@ -44506,8 +44762,8 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>237</v>
+      <c r="C17" s="49" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="18">
@@ -44517,8 +44773,8 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="46" t="s">
-        <v>238</v>
+      <c r="C18" s="50" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="19">
@@ -44526,10 +44782,10 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>239</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -44537,10 +44793,10 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>240</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="50" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="21">
@@ -44548,43 +44804,43 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>241</v>
+        <v>28</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>242</v>
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>243</v>
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>244</v>
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="25">
@@ -44592,10 +44848,10 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>245</v>
+        <v>32</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="26">
@@ -44603,10 +44859,10 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>246</v>
+        <v>33</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="27">
@@ -44614,10 +44870,10 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>247</v>
+        <v>34</v>
+      </c>
+      <c r="C27" s="49" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="28">
@@ -44625,32 +44881,32 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>248</v>
+        <v>35</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>249</v>
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="49" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="45" t="s">
-        <v>250</v>
+      <c r="B30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31">
@@ -44658,23 +44914,30 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="C32" s="50" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -44703,11 +44966,11 @@
     <row r="41">
       <c r="A41" s="4"/>
       <c r="B41" s="7"/>
-      <c r="C41" s="52"/>
     </row>
     <row r="42">
       <c r="A42" s="4"/>
       <c r="B42" s="7"/>
+      <c r="C42" s="54"/>
     </row>
     <row r="43">
       <c r="A43" s="4"/>
@@ -44728,11 +44991,11 @@
     <row r="47">
       <c r="A47" s="4"/>
       <c r="B47" s="7"/>
-      <c r="C47" s="52"/>
     </row>
     <row r="48">
       <c r="A48" s="4"/>
       <c r="B48" s="7"/>
+      <c r="C48" s="54"/>
     </row>
     <row r="49">
       <c r="A49" s="4"/>
@@ -44745,11 +45008,11 @@
     <row r="51">
       <c r="A51" s="4"/>
       <c r="B51" s="7"/>
-      <c r="C51" s="52"/>
     </row>
     <row r="52">
       <c r="A52" s="4"/>
       <c r="B52" s="7"/>
+      <c r="C52" s="54"/>
     </row>
     <row r="53">
       <c r="A53" s="4"/>
@@ -44850,11 +45113,11 @@
     <row r="77">
       <c r="A77" s="4"/>
       <c r="B77" s="7"/>
-      <c r="C77" s="52"/>
     </row>
     <row r="78">
       <c r="A78" s="4"/>
       <c r="B78" s="7"/>
+      <c r="C78" s="54"/>
     </row>
     <row r="79">
       <c r="A79" s="4"/>
@@ -44959,11 +45222,11 @@
     <row r="104">
       <c r="A104" s="4"/>
       <c r="B104" s="7"/>
-      <c r="C104" s="52"/>
     </row>
     <row r="105">
       <c r="A105" s="4"/>
       <c r="B105" s="7"/>
+      <c r="C105" s="54"/>
     </row>
     <row r="106">
       <c r="A106" s="4"/>
@@ -44976,11 +45239,11 @@
     <row r="108">
       <c r="A108" s="4"/>
       <c r="B108" s="7"/>
-      <c r="C108" s="52"/>
     </row>
     <row r="109">
       <c r="A109" s="4"/>
       <c r="B109" s="7"/>
+      <c r="C109" s="54"/>
     </row>
     <row r="110">
       <c r="A110" s="4"/>
@@ -44997,11 +45260,11 @@
     <row r="113">
       <c r="A113" s="4"/>
       <c r="B113" s="7"/>
-      <c r="C113" s="52"/>
     </row>
     <row r="114">
       <c r="A114" s="4"/>
       <c r="B114" s="7"/>
+      <c r="C114" s="54"/>
     </row>
     <row r="115">
       <c r="A115" s="4"/>
@@ -45034,11 +45297,11 @@
     <row r="122">
       <c r="A122" s="4"/>
       <c r="B122" s="7"/>
-      <c r="C122" s="52"/>
     </row>
     <row r="123">
       <c r="A123" s="4"/>
       <c r="B123" s="7"/>
+      <c r="C123" s="54"/>
     </row>
     <row r="124">
       <c r="A124" s="4"/>
@@ -45066,10 +45329,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -45254,11 +45517,11 @@
     <row r="177">
       <c r="A177" s="4"/>
       <c r="B177" s="7"/>
-      <c r="C177" s="52"/>
     </row>
     <row r="178">
       <c r="A178" s="4"/>
       <c r="B178" s="7"/>
+      <c r="C178" s="54"/>
     </row>
     <row r="179">
       <c r="A179" s="4"/>
@@ -45295,11 +45558,11 @@
     <row r="187">
       <c r="A187" s="4"/>
       <c r="B187" s="7"/>
-      <c r="C187" s="52"/>
     </row>
     <row r="188">
       <c r="A188" s="4"/>
       <c r="B188" s="7"/>
+      <c r="C188" s="54"/>
     </row>
     <row r="189">
       <c r="A189" s="4"/>
@@ -45399,15 +45662,15 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
-      <c r="C214" s="52"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
       <c r="B215" s="7"/>
+      <c r="C215" s="54"/>
     </row>
     <row r="216">
       <c r="A216" s="4"/>
@@ -45552,11 +45815,11 @@
     <row r="251">
       <c r="A251" s="4"/>
       <c r="B251" s="7"/>
-      <c r="C251" s="52"/>
     </row>
     <row r="252">
       <c r="A252" s="4"/>
       <c r="B252" s="7"/>
+      <c r="C252" s="54"/>
     </row>
     <row r="253">
       <c r="A253" s="4"/>
@@ -45577,11 +45840,11 @@
     <row r="257">
       <c r="A257" s="4"/>
       <c r="B257" s="7"/>
-      <c r="C257" s="52"/>
     </row>
     <row r="258">
       <c r="A258" s="4"/>
       <c r="B258" s="7"/>
+      <c r="C258" s="54"/>
     </row>
     <row r="259">
       <c r="A259" s="4"/>
@@ -45638,11 +45901,11 @@
     <row r="272">
       <c r="A272" s="4"/>
       <c r="B272" s="7"/>
-      <c r="C272" s="52"/>
     </row>
     <row r="273">
       <c r="A273" s="4"/>
       <c r="B273" s="7"/>
+      <c r="C273" s="54"/>
     </row>
     <row r="274">
       <c r="A274" s="4"/>
@@ -45663,11 +45926,11 @@
     <row r="278">
       <c r="A278" s="4"/>
       <c r="B278" s="7"/>
-      <c r="C278" s="52"/>
     </row>
     <row r="279">
       <c r="A279" s="4"/>
       <c r="B279" s="7"/>
+      <c r="C279" s="54"/>
     </row>
     <row r="280">
       <c r="A280" s="4"/>
@@ -45688,11 +45951,11 @@
     <row r="284">
       <c r="A284" s="4"/>
       <c r="B284" s="7"/>
-      <c r="C284" s="52"/>
     </row>
     <row r="285">
       <c r="A285" s="4"/>
       <c r="B285" s="7"/>
+      <c r="C285" s="54"/>
     </row>
     <row r="286">
       <c r="A286" s="4"/>
@@ -45800,7 +46063,7 @@
     </row>
     <row r="312">
       <c r="A312" s="4"/>
-      <c r="B312" s="6"/>
+      <c r="B312" s="7"/>
     </row>
     <row r="313">
       <c r="A313" s="4"/>
@@ -45813,16 +46076,16 @@
     <row r="315">
       <c r="A315" s="4"/>
       <c r="B315" s="6"/>
-      <c r="C315" s="52"/>
     </row>
     <row r="316">
       <c r="A316" s="4"/>
       <c r="B316" s="6"/>
-      <c r="C316" s="7"/>
+      <c r="C316" s="54"/>
     </row>
     <row r="317">
       <c r="A317" s="4"/>
       <c r="B317" s="6"/>
+      <c r="C317" s="7"/>
     </row>
     <row r="318">
       <c r="A318" s="4"/>
@@ -45877,8 +46140,8 @@
       <c r="B330" s="6"/>
     </row>
     <row r="331">
-      <c r="A331" s="8"/>
-      <c r="B331" s="9"/>
+      <c r="A331" s="4"/>
+      <c r="B331" s="6"/>
     </row>
     <row r="332">
       <c r="A332" s="8"/>
@@ -48555,6 +48818,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -48574,19 +48841,19 @@
     <hyperlink r:id="rId14" ref="C15"/>
     <hyperlink r:id="rId15" ref="C17"/>
     <hyperlink r:id="rId16" ref="C18"/>
-    <hyperlink r:id="rId17" ref="C19"/>
-    <hyperlink r:id="rId18" ref="C20"/>
-    <hyperlink r:id="rId19" ref="C21"/>
-    <hyperlink r:id="rId20" ref="C22"/>
-    <hyperlink r:id="rId21" ref="C23"/>
-    <hyperlink r:id="rId22" ref="C24"/>
-    <hyperlink r:id="rId23" ref="C25"/>
-    <hyperlink r:id="rId24" ref="C26"/>
-    <hyperlink r:id="rId25" ref="C27"/>
-    <hyperlink r:id="rId26" ref="C28"/>
-    <hyperlink r:id="rId27" ref="C29"/>
-    <hyperlink r:id="rId28" ref="C30"/>
-    <hyperlink r:id="rId29" ref="C31"/>
+    <hyperlink r:id="rId17" ref="C20"/>
+    <hyperlink r:id="rId18" ref="C21"/>
+    <hyperlink r:id="rId19" ref="C22"/>
+    <hyperlink r:id="rId20" ref="C23"/>
+    <hyperlink r:id="rId21" ref="C24"/>
+    <hyperlink r:id="rId22" ref="C25"/>
+    <hyperlink r:id="rId23" ref="C26"/>
+    <hyperlink r:id="rId24" ref="C27"/>
+    <hyperlink r:id="rId25" ref="C28"/>
+    <hyperlink r:id="rId26" ref="C29"/>
+    <hyperlink r:id="rId27" ref="C30"/>
+    <hyperlink r:id="rId28" ref="C31"/>
+    <hyperlink r:id="rId29" ref="C32"/>
   </hyperlinks>
   <drawing r:id="rId30"/>
 </worksheet>
@@ -48617,64 +48884,64 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="W1" s="12"/>
       <c r="X1" s="12"/>
@@ -48688,35 +48955,35 @@
       <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G2" s="30" t="s">
+      <c r="C2" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="D2" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="E2" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="F2" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="G2" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="H2" s="32" t="s">
         <v>281</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="3">
@@ -48726,35 +48993,35 @@
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I3" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>281</v>
+      <c r="J3" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="4">
@@ -48764,35 +49031,35 @@
       <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F4" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J4" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G4" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L4" s="30" t="s">
-        <v>281</v>
+      <c r="K4" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="5">
@@ -48802,35 +49069,35 @@
       <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F5" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I5" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J5" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K5" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E5" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G5" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I5" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L5" s="30" t="s">
-        <v>281</v>
+      <c r="L5" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="6">
@@ -48840,35 +49107,35 @@
       <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L6" s="32" t="s">
         <v>285</v>
-      </c>
-      <c r="D6" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E6" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="L6" s="30" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="7">
@@ -48878,35 +49145,35 @@
       <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E7" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G7" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H7" s="30" t="s">
+      <c r="C7" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="E7" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="F7" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K7" s="30" t="s">
+      <c r="G7" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="H7" s="32" t="s">
         <v>281</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -48916,35 +49183,35 @@
       <c r="B8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="D8" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H8" s="30" t="s">
+      <c r="C8" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="E8" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="F8" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K8" s="30" t="s">
+      <c r="G8" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L8" s="30" t="s">
+      <c r="H8" s="32" t="s">
         <v>281</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="9">
@@ -48954,78 +49221,78 @@
       <c r="B9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>288</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E9" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F9" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="G9" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="H9" s="30" t="s">
+      <c r="C9" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="D9" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="E9" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="F9" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="K9" s="30" t="s">
+      <c r="G9" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="L9" s="30" t="s">
+      <c r="H9" s="32" t="s">
         <v>281</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="J9" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="L9" s="32" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
         <v>9.0</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G10" s="19" t="s">
+      <c r="C10" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="D10" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="E10" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="F10" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="G10" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="H10" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="M10" s="53" t="s">
+      <c r="I10" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="N10" s="27"/>
+      <c r="J10" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K10" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L10" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="M10" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="N10" s="29"/>
     </row>
     <row r="11">
       <c r="A11" s="4">
@@ -49034,41 +49301,41 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="28" t="s">
+      <c r="C11" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="D11" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I11" s="28" t="s">
+      <c r="E11" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="J11" s="28" t="s">
+      <c r="F11" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="K11" s="28" t="s">
+      <c r="G11" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L11" s="28" t="s">
+      <c r="H11" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="M11" s="32" t="s">
+      <c r="I11" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" s="30" t="s">
         <v>300</v>
       </c>
-      <c r="N11" s="31" t="s">
-        <v>299</v>
+      <c r="K11" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L11" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="N11" s="34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12">
@@ -49078,84 +49345,84 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G12" s="28" t="s">
+      <c r="C12" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="D12" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="E12" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="J12" s="28" t="s">
+      <c r="F12" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="K12" s="28" t="s">
+      <c r="G12" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L12" s="28" t="s">
+      <c r="H12" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="M12" s="54" t="s">
+      <c r="I12" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="K12" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="N12" s="31" t="s">
-        <v>299</v>
+      <c r="L12" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="M12" s="60" t="s">
+        <v>305</v>
+      </c>
+      <c r="N12" s="34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
         <v>12.0</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="G13" s="19" t="s">
+      <c r="C13" s="58" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="19" t="s">
+      <c r="D13" s="58" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="E13" s="58" t="s">
         <v>295</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="F13" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="G13" s="58" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="H13" s="58" t="s">
         <v>298</v>
       </c>
-      <c r="M13" s="53" t="s">
+      <c r="I13" s="58" t="s">
         <v>299</v>
       </c>
-      <c r="N13" s="27"/>
+      <c r="J13" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="M13" s="59" t="s">
+        <v>303</v>
+      </c>
+      <c r="N13" s="29"/>
     </row>
     <row r="14">
       <c r="A14" s="4">
@@ -49164,41 +49431,41 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G14" s="28" t="s">
+      <c r="C14" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="H14" s="28" t="s">
+      <c r="D14" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="28" t="s">
+      <c r="E14" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="J14" s="28" t="s">
+      <c r="F14" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="G14" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L14" s="28" t="s">
+      <c r="H14" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="M14" s="28" t="s">
+      <c r="I14" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J14" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="30" t="s">
         <v>302</v>
       </c>
-      <c r="N14" s="31" t="s">
-        <v>299</v>
+      <c r="M14" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="N14" s="34" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="15">
@@ -49208,41 +49475,41 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>291</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="28" t="s">
+      <c r="C15" s="30" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="D15" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="I15" s="28" t="s">
+      <c r="E15" s="30" t="s">
         <v>295</v>
       </c>
-      <c r="J15" s="28" t="s">
+      <c r="F15" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="28" t="s">
+      <c r="G15" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="L15" s="28" t="s">
+      <c r="H15" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="M15" s="28" t="s">
+      <c r="I15" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="J15" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="K15" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>302</v>
+      </c>
+      <c r="M15" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="N15" s="34" t="s">
         <v>303</v>
-      </c>
-      <c r="N15" s="31" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="16">
@@ -49252,35 +49519,35 @@
       <c r="B16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G16" s="28" t="s">
+      <c r="C16" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="H16" s="28" t="s">
+      <c r="D16" s="30" t="s">
         <v>309</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="E16" s="30" t="s">
         <v>310</v>
       </c>
-      <c r="J16" s="28" t="s">
+      <c r="F16" s="30" t="s">
         <v>311</v>
       </c>
-      <c r="K16" s="28" t="s">
+      <c r="G16" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="L16" s="28" t="s">
-        <v>297</v>
+      <c r="H16" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="17">
@@ -49290,35 +49557,35 @@
       <c r="B17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="28" t="s">
+      <c r="C17" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="H17" s="28" t="s">
-        <v>313</v>
-      </c>
-      <c r="I17" s="28" t="s">
-        <v>314</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="K17" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="L17" s="28" t="s">
+      <c r="D17" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="E17" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="H17" s="30" t="s">
         <v>317</v>
+      </c>
+      <c r="I17" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="J17" s="30" t="s">
+        <v>319</v>
+      </c>
+      <c r="K17" s="30" t="s">
+        <v>320</v>
+      </c>
+      <c r="L17" s="30" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="18">
@@ -49328,118 +49595,113 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="28" t="s">
-        <v>318</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="28" t="s">
+      <c r="C18" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>323</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="F18" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="F18" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="G18" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="H18" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="I18" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="K18" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="L18" s="27"/>
+      <c r="G18" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="J18" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="K18" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="L18" s="29"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F19" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G19" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="D19" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="I19" s="30" t="s">
+      <c r="E19" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="F19" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="K19" s="30" t="s">
+      <c r="G19" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="H19" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="M19" s="55" t="s">
+      <c r="I19" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="N19" s="48" t="s">
+      <c r="J19" s="32" t="s">
         <v>334</v>
       </c>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="53"/>
     </row>
     <row r="20">
       <c r="A20" s="4">
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="I20" s="30" t="s">
+      <c r="D20" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="E20" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="K20" s="30" t="s">
+      <c r="F20" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="L20" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="M20" s="48" t="s">
+      <c r="G20" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="32" t="s">
         <v>335</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="N20" s="53" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="21">
@@ -49447,162 +49709,162 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>325</v>
-      </c>
-      <c r="F21" s="30" t="s">
-        <v>326</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="H21" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="D21" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="E21" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="F21" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>328</v>
-      </c>
-      <c r="M21" s="48" t="s">
+      <c r="G21" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="J21" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="K21" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="L21" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="N21" s="48" t="s">
-        <v>336</v>
+      <c r="M21" s="53" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="33" t="s">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="H22" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="I22" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="J22" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="F22" s="33" t="s">
+      <c r="K22" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="G22" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="H22" s="33" t="s">
+      <c r="L22" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="M22" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="I22" s="33" t="s">
+      <c r="N22" s="53" t="s">
         <v>343</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="K22" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="M22" s="56" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="36" t="s">
+        <v>346</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="G23" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="D23" s="35" t="s">
+      <c r="H23" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="I23" s="36" t="s">
         <v>350</v>
       </c>
-      <c r="F23" s="35" t="s">
+      <c r="J23" s="36" t="s">
         <v>351</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="K23" s="36" t="s">
         <v>352</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="L23" s="36" t="s">
         <v>353</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="M23" s="62" t="s">
         <v>354</v>
-      </c>
-      <c r="J23" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="L23" s="36" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="28" t="s">
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>355</v>
+      </c>
+      <c r="D24" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="39" t="s">
         <v>358</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="G24" s="39" t="s">
         <v>359</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="H24" s="39" t="s">
         <v>360</v>
       </c>
-      <c r="F24" s="28" t="s">
-        <v>292</v>
-      </c>
-      <c r="G24" s="28" t="s">
+      <c r="I24" s="39" t="s">
         <v>361</v>
       </c>
-      <c r="H24" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="I24" s="30" t="s">
+      <c r="J24" s="39" t="s">
         <v>362</v>
       </c>
-      <c r="J24" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>332</v>
-      </c>
-      <c r="L24" s="28" t="s">
+      <c r="K24" s="39" t="s">
         <v>363</v>
       </c>
-      <c r="M24" s="48" t="s">
+      <c r="L24" s="40" t="s">
         <v>364</v>
       </c>
     </row>
@@ -49611,214 +49873,214 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>365</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="F25" s="28" t="s">
+      <c r="D25" s="30" t="s">
         <v>366</v>
       </c>
+      <c r="E25" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>296</v>
+      </c>
       <c r="G25" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="H25" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="I25" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
+        <v>368</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="I25" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="J25" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="L25" s="30" t="s">
+        <v>370</v>
+      </c>
+      <c r="M25" s="53" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>306</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="H26" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="I26" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="J26" s="28" t="s">
-        <v>361</v>
-      </c>
-      <c r="K26" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="L26" s="27"/>
+        <v>371</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="J26" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>370</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="F27" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="G27" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H27" s="30" t="s">
         <v>374</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="I27" s="30" t="s">
         <v>375</v>
       </c>
-      <c r="I27" s="28" t="s">
-        <v>376</v>
-      </c>
       <c r="J27" s="30" t="s">
-        <v>323</v>
-      </c>
-      <c r="K27" s="27"/>
-      <c r="L27" s="27"/>
+        <v>368</v>
+      </c>
+      <c r="K27" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="L27" s="29"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D28" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="D28" s="48" t="s">
+      <c r="E28" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="E28" s="48" t="s">
+      <c r="F28" s="30" t="s">
         <v>379</v>
       </c>
-      <c r="F28" s="48" t="s">
+      <c r="G28" s="30" t="s">
         <v>380</v>
       </c>
-      <c r="G28" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="H28" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>323</v>
-      </c>
+      <c r="H28" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
-      <c r="B29" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="57" t="s">
-        <v>381</v>
-      </c>
-      <c r="D29" s="57" t="s">
-        <v>305</v>
-      </c>
-      <c r="E29" s="58" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>308</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>307</v>
-      </c>
-      <c r="H29" s="57" t="s">
-        <v>382</v>
-      </c>
-      <c r="I29" s="57" t="s">
+      <c r="B29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="53" t="s">
         <v>383</v>
       </c>
-      <c r="J29" s="57" t="s">
+      <c r="D29" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G29" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="H29" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I29" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="K29" s="43" t="s">
-        <v>384</v>
+      <c r="J29" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="K29" s="32" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>377</v>
-      </c>
-      <c r="D30" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="F30" s="48" t="s">
-        <v>380</v>
-      </c>
-      <c r="G30" s="28" t="s">
-        <v>297</v>
-      </c>
-      <c r="H30" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="I30" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>381</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>305</v>
-      </c>
-      <c r="L30" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="M30" s="48" t="s">
-        <v>386</v>
+      <c r="B30" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>387</v>
+      </c>
+      <c r="D30" s="63" t="s">
+        <v>309</v>
+      </c>
+      <c r="E30" s="64" t="s">
+        <v>304</v>
+      </c>
+      <c r="F30" s="63" t="s">
+        <v>312</v>
+      </c>
+      <c r="G30" s="63" t="s">
+        <v>311</v>
+      </c>
+      <c r="H30" s="63" t="s">
+        <v>388</v>
+      </c>
+      <c r="I30" s="63" t="s">
+        <v>389</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="K30" s="47" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="31">
@@ -49826,39 +50088,76 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="D31" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="E31" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="F31" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G31" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="H31" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="J31" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="K31" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="L31" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="M31" s="53" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="48" t="s">
-        <v>387</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>388</v>
-      </c>
-      <c r="F31" s="48" t="s">
-        <v>366</v>
-      </c>
-      <c r="G31" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="H31" s="48" t="s">
-        <v>378</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>379</v>
-      </c>
-      <c r="J31" s="28" t="s">
+      <c r="C32" s="53" t="s">
+        <v>393</v>
+      </c>
+      <c r="D32" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="K31" s="48" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
+      <c r="E32" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="F32" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>311</v>
+      </c>
+      <c r="H32" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="K32" s="53" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
@@ -52375,6 +52674,10 @@
     <row r="661">
       <c r="A661" s="8"/>
       <c r="B661" s="9"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="8"/>
+      <c r="B662" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -52407,7 +52710,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
@@ -52574,7 +52877,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
@@ -52582,7 +52885,7 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
@@ -52590,7 +52893,7 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -52598,7 +52901,7 @@
         <v>21.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -52606,7 +52909,7 @@
         <v>22.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
@@ -52614,7 +52917,7 @@
         <v>23.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
@@ -52622,7 +52925,7 @@
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26">
@@ -52630,7 +52933,7 @@
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27">
@@ -52638,7 +52941,7 @@
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28">
@@ -52646,7 +52949,7 @@
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29">
@@ -52654,7 +52957,7 @@
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -52662,7 +52965,7 @@
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -52670,20 +52973,24 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -53067,10 +53374,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -53398,10 +53705,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -53770,11 +54077,11 @@
     <row r="306">
       <c r="A306" s="4"/>
       <c r="B306" s="7"/>
-      <c r="C306" s="7"/>
     </row>
     <row r="307">
       <c r="A307" s="4"/>
       <c r="B307" s="7"/>
+      <c r="C307" s="7"/>
     </row>
     <row r="308">
       <c r="A308" s="4"/>
@@ -53825,8 +54132,8 @@
       <c r="B319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -56547,6 +56854,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -56578,76 +56889,76 @@
         <v>5</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
@@ -56721,17 +57032,17 @@
       <c r="B10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D10" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>418</v>
+      <c r="C10" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="11">
@@ -56741,17 +57052,17 @@
       <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D11" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F11" s="48" t="s">
-        <v>418</v>
+      <c r="C11" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D11" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="12">
@@ -56761,17 +57072,17 @@
       <c r="B12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E12" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F12" s="48" t="s">
-        <v>418</v>
+      <c r="C12" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="13">
@@ -56781,17 +57092,17 @@
       <c r="B13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F13" s="48" t="s">
-        <v>418</v>
+      <c r="C13" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="14">
@@ -56801,17 +57112,17 @@
       <c r="B14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D14" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F14" s="48" t="s">
-        <v>418</v>
+      <c r="C14" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E14" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="15">
@@ -56821,17 +57132,17 @@
       <c r="B15" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D15" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="F15" s="48" t="s">
-        <v>418</v>
+      <c r="C15" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="16">
@@ -56857,28 +57168,39 @@
       <c r="B18" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19">
       <c r="A19" s="4">
         <v>18.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="D19" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="F19" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="G19" s="55" t="s">
-        <v>423</v>
+        <v>26</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F19" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>429</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="20">
@@ -56886,7 +57208,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>425</v>
+      </c>
+      <c r="D20" s="53" t="s">
+        <v>426</v>
+      </c>
+      <c r="E20" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" s="53" t="s">
+        <v>428</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="21">
@@ -56894,130 +57231,170 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="D21" s="48" t="s">
-        <v>424</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
     </row>
     <row r="22">
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="59" t="s">
-        <v>415</v>
-      </c>
-      <c r="D22" s="60" t="s">
-        <v>425</v>
-      </c>
-      <c r="E22" s="60" t="s">
+      <c r="B22" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="53" t="s">
         <v>426</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" s="60" t="s">
-        <v>428</v>
-      </c>
-      <c r="H22" s="60" t="s">
-        <v>429</v>
-      </c>
+      <c r="D22" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" s="61" t="s">
-        <v>415</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>425</v>
-      </c>
-      <c r="E23" s="62" t="s">
-        <v>426</v>
-      </c>
-      <c r="F23" s="62" t="s">
-        <v>427</v>
-      </c>
-      <c r="G23" s="62" t="s">
-        <v>428</v>
-      </c>
-      <c r="H23" s="62" t="s">
-        <v>429</v>
-      </c>
+      <c r="B23" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="I23" s="53"/>
     </row>
     <row r="24">
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="48" t="s">
-        <v>415</v>
-      </c>
-      <c r="D24" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>417</v>
-      </c>
+      <c r="B24" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D24" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="E24" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="53" t="s">
+        <v>433</v>
+      </c>
+      <c r="G24" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="I24" s="53"/>
     </row>
     <row r="25">
       <c r="A25" s="4">
         <v>24.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>33</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>421</v>
+      </c>
+      <c r="D25" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="E25" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26">
       <c r="A26" s="4">
         <v>25.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>34</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
     </row>
     <row r="27">
       <c r="A27" s="4">
         <v>26.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
     </row>
     <row r="28">
       <c r="A28" s="4">
         <v>27.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29">
       <c r="A29" s="4">
         <v>28.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30">
       <c r="A30" s="4">
         <v>29.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -57025,20 +57402,24 @@
         <v>30.0</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4">
+        <v>31.0</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
     </row>
     <row r="33">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="7"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35">
       <c r="A35" s="4"/>
@@ -57422,10 +57803,10 @@
     </row>
     <row r="130">
       <c r="A130" s="4"/>
+      <c r="B130" s="7"/>
     </row>
     <row r="131">
       <c r="A131" s="4"/>
-      <c r="B131" s="7"/>
     </row>
     <row r="132">
       <c r="A132" s="4"/>
@@ -57753,10 +58134,10 @@
     </row>
     <row r="213">
       <c r="A213" s="4"/>
+      <c r="B213" s="7"/>
     </row>
     <row r="214">
       <c r="A214" s="4"/>
-      <c r="B214" s="7"/>
     </row>
     <row r="215">
       <c r="A215" s="4"/>
@@ -58179,8 +58560,8 @@
       <c r="B319" s="7"/>
     </row>
     <row r="320">
-      <c r="A320" s="8"/>
-      <c r="B320" s="9"/>
+      <c r="A320" s="4"/>
+      <c r="B320" s="7"/>
     </row>
     <row r="321">
       <c r="A321" s="8"/>
@@ -60901,6 +61282,10 @@
     <row r="1000">
       <c r="A1000" s="8"/>
       <c r="B1000" s="9"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="8"/>
+      <c r="B1001" s="9"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -60925,123 +61310,123 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="53" t="s">
+        <v>422</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="53" t="s">
+        <v>423</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="53" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="53" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="53" t="s">
+        <v>432</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="53" t="s">
+        <v>435</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="B1" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="48" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="48" t="s">
-        <v>416</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="48" t="s">
-        <v>417</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="48" t="s">
-        <v>418</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="48" t="s">
-        <v>425</v>
-      </c>
-      <c r="B6" s="46" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="B10" s="46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="55" t="s">
-        <v>421</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="55" t="s">
-        <v>423</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="48" t="s">
-        <v>424</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>444</v>
+      <c r="B15" s="49" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
